--- a/Latest Experiments/New Microsoft Excel Worksheet.xlsx
+++ b/Latest Experiments/New Microsoft Excel Worksheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="23">
   <si>
     <t>epochs</t>
   </si>
@@ -76,13 +76,25 @@
   </si>
   <si>
     <t>zo</t>
+  </si>
+  <si>
+    <t>omos</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>MNVI</t>
+  </si>
+  <si>
+    <t>MNVII</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +111,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -144,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,6 +204,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,28 +491,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.33203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5" style="1" customWidth="1"/>
-    <col min="8" max="9" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="5" style="1" customWidth="1"/>
-    <col min="15" max="17" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="6" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="1" customWidth="1"/>
+    <col min="8" max="10" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" style="1" customWidth="1"/>
+    <col min="12" max="13" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" style="1" customWidth="1"/>
+    <col min="17" max="19" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.88671875" style="1"/>
+    <col min="22" max="22" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="6">
         <v>1</v>
       </c>
+      <c r="C1" s="6">
+        <v>12</v>
+      </c>
       <c r="D1" s="6">
         <v>2</v>
       </c>
@@ -509,16 +543,28 @@
         <v>11</v>
       </c>
       <c r="O1" s="6">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="6">
         <v>6</v>
       </c>
-      <c r="P1" s="6">
+      <c r="R1" s="6">
         <v>7</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="S1" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U1" s="6">
+        <v>15</v>
+      </c>
+      <c r="V1" s="6">
+        <v>14</v>
+      </c>
+      <c r="W1" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -555,17 +601,30 @@
         <v>14</v>
       </c>
       <c r="N2" s="9"/>
-      <c r="O2" s="10">
-        <v>14</v>
-      </c>
-      <c r="P2" s="10">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="9">
+        <v>14</v>
+      </c>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10">
+        <v>14</v>
+      </c>
+      <c r="R2" s="10">
+        <v>14</v>
+      </c>
+      <c r="S2" s="11">
+        <v>14</v>
+      </c>
+      <c r="U2" s="4">
+        <v>14</v>
+      </c>
+      <c r="V2" s="4">
+        <v>14</v>
+      </c>
+      <c r="W2" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -602,17 +661,30 @@
         <v>10</v>
       </c>
       <c r="N3" s="9"/>
-      <c r="O3" s="10">
+      <c r="O3" s="9">
+        <v>6</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10">
         <v>5</v>
       </c>
-      <c r="P3" s="10">
+      <c r="R3" s="10">
         <v>10</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="S3" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U3" s="4">
+        <v>5</v>
+      </c>
+      <c r="V3" s="4">
+        <v>6</v>
+      </c>
+      <c r="W3" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -649,34 +721,47 @@
         <v>500</v>
       </c>
       <c r="N4" s="7"/>
-      <c r="O4" s="10">
+      <c r="O4" s="7">
+        <v>720</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="10">
         <v>448</v>
       </c>
-      <c r="P4" s="10">
+      <c r="R4" s="10">
         <v>448</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="S4" s="11">
         <v>448</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U4" s="4">
+        <v>448</v>
+      </c>
+      <c r="V4" s="4">
+        <v>448</v>
+      </c>
+      <c r="W4" s="4">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
+      <c r="B5" s="7">
+        <v>255</v>
+      </c>
+      <c r="C5" s="7">
+        <v>255</v>
+      </c>
+      <c r="D5" s="7">
+        <v>255</v>
+      </c>
+      <c r="E5" s="7">
+        <v>255</v>
+      </c>
+      <c r="F5" s="7">
+        <v>255</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="10" t="s">
@@ -696,17 +781,30 @@
         <v>17</v>
       </c>
       <c r="N5" s="7"/>
-      <c r="O5" s="10">
+      <c r="O5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="10">
         <v>255</v>
       </c>
-      <c r="P5" s="10">
+      <c r="R5" s="10">
         <v>255</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="S5" s="11">
         <v>255</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -743,17 +841,30 @@
         <v>11</v>
       </c>
       <c r="N6" s="7"/>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="R6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="S6" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -790,17 +901,30 @@
         <v>12</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -837,24 +961,39 @@
         <v>0.2</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="10">
+      <c r="O8" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="10">
         <v>0.8</v>
       </c>
-      <c r="P8" s="10">
+      <c r="R8" s="10">
         <v>0.8</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="S8" s="11">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U8" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="8">
         <v>90</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8">
+        <v>90</v>
+      </c>
       <c r="D9" s="8">
         <v>89.4</v>
       </c>
@@ -882,24 +1021,39 @@
         <v>89.7</v>
       </c>
       <c r="N9" s="8"/>
-      <c r="O9" s="12">
+      <c r="O9" s="8">
+        <v>89.8</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="12">
         <v>61.6</v>
       </c>
-      <c r="P9" s="12">
+      <c r="R9" s="12">
         <v>68.3</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="S9" s="13">
         <v>69.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U9" s="5">
+        <v>89.7</v>
+      </c>
+      <c r="V9" s="5">
+        <v>90</v>
+      </c>
+      <c r="W9" s="5">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="8">
         <v>97.4</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8">
+        <v>97.7</v>
+      </c>
       <c r="D10" s="8">
         <v>96.8</v>
       </c>
@@ -927,24 +1081,39 @@
         <v>97</v>
       </c>
       <c r="N10" s="8"/>
-      <c r="O10" s="12">
+      <c r="O10" s="8">
+        <v>97.7</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="12">
         <v>58.4</v>
       </c>
-      <c r="P10" s="12">
+      <c r="R10" s="12">
         <v>67.099999999999994</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="S10" s="13">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U10" s="5">
+        <v>98.4</v>
+      </c>
+      <c r="V10" s="5">
+        <v>97.4</v>
+      </c>
+      <c r="W10" s="5">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="8">
         <v>49</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8">
+        <v>48.8</v>
+      </c>
       <c r="D11" s="8">
         <v>45.8</v>
       </c>
@@ -972,24 +1141,39 @@
         <v>47.2</v>
       </c>
       <c r="N11" s="8"/>
-      <c r="O11" s="12">
+      <c r="O11" s="8">
+        <v>46.3</v>
+      </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="12">
         <v>30.7</v>
       </c>
-      <c r="P11" s="12">
+      <c r="R11" s="12">
         <v>40</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="S11" s="13">
         <v>31.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U11" s="5">
+        <v>45.2</v>
+      </c>
+      <c r="V11" s="5">
+        <v>47.8</v>
+      </c>
+      <c r="W11" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="8">
         <v>65.5</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8">
+        <v>62.2</v>
+      </c>
       <c r="D12" s="8">
         <v>60</v>
       </c>
@@ -1017,24 +1201,39 @@
         <v>60</v>
       </c>
       <c r="N12" s="8"/>
-      <c r="O12" s="12">
+      <c r="O12" s="8">
+        <v>60.7</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="12">
         <v>59</v>
       </c>
-      <c r="P12" s="12">
+      <c r="R12" s="12">
         <v>59.4</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="S12" s="13">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U12" s="5">
+        <v>61.4</v>
+      </c>
+      <c r="V12" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="W12" s="5">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="8">
         <v>38.799999999999997</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8">
+        <v>40.700000000000003</v>
+      </c>
       <c r="D13" s="8">
         <v>38.6</v>
       </c>
@@ -1062,24 +1261,39 @@
         <v>40.200000000000003</v>
       </c>
       <c r="N13" s="8"/>
-      <c r="O13" s="12">
+      <c r="O13" s="8">
+        <v>38</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="12">
         <v>31</v>
       </c>
-      <c r="P13" s="12">
+      <c r="R13" s="12">
         <v>33.700000000000003</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="S13" s="13">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U13" s="5">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="V13" s="5">
+        <v>40</v>
+      </c>
+      <c r="W13" s="5">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="8">
         <v>48.8</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="8">
+        <v>49.2</v>
+      </c>
       <c r="D14" s="8">
         <v>47</v>
       </c>
@@ -1107,24 +1321,39 @@
         <v>48.1</v>
       </c>
       <c r="N14" s="8"/>
-      <c r="O14" s="12">
+      <c r="O14" s="8">
+        <v>46.6</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="12">
         <v>40.5</v>
       </c>
-      <c r="P14" s="12">
+      <c r="R14" s="12">
         <v>43</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="S14" s="13">
         <v>36.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U14" s="5">
+        <v>46.8</v>
+      </c>
+      <c r="V14" s="5">
+        <v>48.7</v>
+      </c>
+      <c r="W14" s="5">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="8">
         <v>79</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="8">
+        <v>79.400000000000006</v>
+      </c>
       <c r="D15" s="8">
         <v>73.8</v>
       </c>
@@ -1152,14 +1381,293 @@
         <v>79.3</v>
       </c>
       <c r="N15" s="8"/>
-      <c r="O15" s="12">
+      <c r="O15" s="8">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="12">
         <v>78.400000000000006</v>
       </c>
-      <c r="P15" s="12">
+      <c r="R15" s="12">
         <v>79.3</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="S15" s="13">
         <v>78</v>
+      </c>
+      <c r="U15" s="5">
+        <v>78</v>
+      </c>
+      <c r="V15" s="5">
+        <v>79</v>
+      </c>
+      <c r="W15" s="5">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="6">
+        <v>20</v>
+      </c>
+      <c r="C19" s="6">
+        <v>21</v>
+      </c>
+      <c r="D19" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>300</v>
+      </c>
+      <c r="C22" s="1">
+        <v>300</v>
+      </c>
+      <c r="D22" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1">
+        <v>255</v>
+      </c>
+      <c r="C23" s="1">
+        <v>255</v>
+      </c>
+      <c r="D23" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>93.2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>92</v>
+      </c>
+      <c r="D27" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
+        <v>98.2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>97</v>
+      </c>
+      <c r="D28" s="1">
+        <v>96.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>55.2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>47.7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1">
+        <v>52.8</v>
+      </c>
+      <c r="C31" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="1">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="C33" s="1">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="D33" s="1">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
